--- a/FA-93.xlsx
+++ b/FA-93.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\BL6PEPF00009BA3\EXCELCNV\2be84e10-b4ef-4436-8416-4ec228eff52a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8DAC6EB-1021-496E-81B5-54B17E06E6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B8DAC6EB-1021-496E-81B5-54B17E06E6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{211D0440-FC0F-4D86-97A0-4FDB14643C42}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{D3197627-2D83-46F9-9916-E097611CBCB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>year</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>WLD</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Only Measuring FLW</t>
@@ -900,9 +897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CEF607-4FCF-4D8A-8328-259C543A8535}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -931,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -945,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -959,7 +958,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -973,7 +972,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -987,7 +986,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1001,48 +1000,6 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>2018</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>2019</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>2021</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
         <v>38</v>
       </c>
     </row>
